--- a/public/uploads/excel/reporte-employee.xlsx
+++ b/public/uploads/excel/reporte-employee.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t> </t>
   </si>
@@ -44,7 +44,7 @@
     <t>bids@cagconcrete.com</t>
   </si>
   <si>
-    <t>01/27/2025 to 02/01/2025</t>
+    <t>02/24/2025 to 03/01/2025</t>
   </si>
   <si>
     <t>Monday</t>
@@ -68,31 +68,76 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Abram Sanchez</t>
+    <t>Carlos Jose Loasiga</t>
+  </si>
+  <si>
+    <t>BAR59008</t>
+  </si>
+  <si>
+    <t>CWM04066</t>
+  </si>
+  <si>
+    <t>WCM69000</t>
+  </si>
+  <si>
+    <t>ERS05055</t>
+  </si>
+  <si>
+    <t>David Sendejas (Jose Perez)</t>
+  </si>
+  <si>
+    <t>Dennis Alvarez</t>
+  </si>
+  <si>
+    <t>ERS05034</t>
+  </si>
+  <si>
+    <t>STEB19010</t>
+  </si>
+  <si>
+    <t>Eliud Pazos</t>
+  </si>
+  <si>
+    <t>ERS05039</t>
+  </si>
+  <si>
+    <t>Francisco Gutierrez</t>
   </si>
   <si>
     <t>CWM04043</t>
   </si>
   <si>
-    <t>ERS05034</t>
-  </si>
-  <si>
-    <t>02/03/2025 to 02/08/2025</t>
-  </si>
-  <si>
-    <t>02/10/2025 to 02/15/2025</t>
-  </si>
-  <si>
-    <t>02/17/2025 to 02/22/2025</t>
-  </si>
-  <si>
-    <t>02/24/2025 to 03/01/2025</t>
-  </si>
-  <si>
-    <t>ERS05031</t>
+    <t>ERS05051</t>
+  </si>
+  <si>
+    <t>CMES60002</t>
+  </si>
+  <si>
+    <t>Gadiel Urias Mendoza</t>
+  </si>
+  <si>
+    <t>REEV50009</t>
   </si>
   <si>
     <t>BP02019</t>
+  </si>
+  <si>
+    <t>SB62002</t>
+  </si>
+  <si>
+    <t>Victor Soriano</t>
+  </si>
+  <si>
+    <t>Wilbert Rutilio</t>
+  </si>
+  <si>
+    <t>CWM04073</t>
+  </si>
+  <si>
+    <t>Brayan Moya</t>
+  </si>
+  <si>
+    <t>03/03/2025 to 03/08/2025</t>
   </si>
 </sst>
 </file>
@@ -186,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +241,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34BFA3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF3157"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF007744"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -238,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -293,6 +356,33 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
@@ -671,10 +761,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="A40" sqref="A40:N40"/>
+      <selection activeCell="A39" sqref="A39:N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.83203125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -897,477 +987,777 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="C11" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>18</v>
+        <v>12.0</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="E11" s="18">
         <v>10.0</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>18</v>
+      <c r="F11" s="21" t="s">
+        <v>20</v>
       </c>
       <c r="G11" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="N11" s="22">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="N12" s="22">
+        <v>57.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="18">
         <v>9.0</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="18">
+      <c r="L13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="N13" s="22">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="18">
         <v>10.0</v>
       </c>
-      <c r="J11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="18">
+      <c r="F14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="18">
         <v>10.0</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="N11" s="19">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="19" t="s">
+      <c r="H14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="N14" s="22">
+        <v>63.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="N15" s="22">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="18">
+        <v>11.5</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="18">
+        <v>13.5</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="18">
+        <v>8.5</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="N16" s="22">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="N17" s="25">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="18">
+        <v>10.5</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="N18" s="22">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="18">
+        <v>11.0</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="18">
+        <v>12.0</v>
+      </c>
+      <c r="N20" s="28">
+        <v>68.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="N12" s="19">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="19" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="19">
+        <v>103.0</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="19">
+        <v>92.5</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="19">
+        <v>86.5</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="19">
+        <v>91.0</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="19">
+        <v>83.5</v>
+      </c>
+      <c r="L22" s="29"/>
+      <c r="M22" s="19">
+        <v>108.0</v>
+      </c>
+      <c r="N22" s="19">
+        <v>564.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19" t="s">
+      <c r="G27" s="19"/>
+      <c r="H27" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19" t="s">
+      <c r="I27" s="19"/>
+      <c r="J27" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19" t="s">
+      <c r="K27" s="19"/>
+      <c r="L27" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19" t="s">
+      <c r="M27" s="19"/>
+      <c r="N27" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="17" t="s">
+    <row r="28" spans="1:14">
+      <c r="A28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="18">
-        <v>11.0</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="18">
-        <v>10.0</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="18">
-        <v>12.0</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="18">
-        <v>9.0</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="18">
-        <v>11.0</v>
-      </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="N18" s="19">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="19" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="L28" s="21"/>
+      <c r="M28" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="N28" s="22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="21"/>
+      <c r="I29" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="21"/>
+      <c r="K29" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="L29" s="21"/>
+      <c r="M29" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="N29" s="22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="21"/>
+      <c r="K30" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="L30" s="21"/>
+      <c r="M30" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="N30" s="22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F31" s="21"/>
+      <c r="G31" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="J31" s="21"/>
+      <c r="K31" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="21"/>
+      <c r="M31" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="N31" s="22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="21"/>
+      <c r="K32" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="L32" s="21"/>
+      <c r="M32" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="N32" s="22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="J33" s="21"/>
+      <c r="K33" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="L33" s="21"/>
+      <c r="M33" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="N33" s="22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="L34" s="24"/>
+      <c r="M34" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="N34" s="25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="H35" s="21"/>
+      <c r="I35" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="J35" s="21"/>
+      <c r="K35" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="L35" s="21"/>
+      <c r="M35" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="N35" s="22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="G37" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="H37" s="27"/>
+      <c r="I37" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="27"/>
+      <c r="K37" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="L37" s="27"/>
+      <c r="M37" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="N37" s="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="19">
-        <v>11.0</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="19">
-        <v>12.0</v>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="19">
-        <v>11.0</v>
-      </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="N19" s="19">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="N25" s="19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L26" s="20"/>
-      <c r="M26" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="N26" s="19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="18">
-        <v>9.0</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="18">
-        <v>8.0</v>
-      </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="N32" s="19">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="19">
-        <v>9.0</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="J33" s="20"/>
-      <c r="K33" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L33" s="20"/>
-      <c r="M33" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="N33" s="19">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="18">
-        <v>8.0</v>
-      </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" s="18">
-        <v>10.0</v>
-      </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18">
+      <c r="B39" s="29"/>
+      <c r="C39" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="G39" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="H39" s="29"/>
+      <c r="I39" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="J39" s="29"/>
+      <c r="K39" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L39" s="29"/>
+      <c r="M39" s="19">
         <v>0.0</v>
       </c>
       <c r="N39" s="19">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="19">
-        <v>8.0</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="19">
-        <v>10.0</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="J40" s="20"/>
-      <c r="K40" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="L40" s="20"/>
-      <c r="M40" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="N40" s="19">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/excel/reporte-employee.xlsx
+++ b/public/uploads/excel/reporte-employee.xlsx
@@ -231,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +247,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF34BFA3"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF3186"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFB631"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -301,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -383,6 +395,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="5" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="6" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="6" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="7" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="7" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
@@ -1031,44 +1061,44 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="18">
         <v>12.0</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="24" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="18">
         <v>12.0</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="24" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="18">
         <v>11.0</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="24" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="18">
         <v>10.0</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="18">
         <v>0.0</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="24" t="s">
         <v>21</v>
       </c>
       <c r="M12" s="18">
         <v>12.0</v>
       </c>
-      <c r="N12" s="22">
+      <c r="N12" s="25">
         <v>57.0</v>
       </c>
     </row>
@@ -1201,90 +1231,90 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="18">
         <v>11.5</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="27" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="18">
         <v>13.5</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="27" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="18">
         <v>11.0</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="27" t="s">
         <v>35</v>
       </c>
       <c r="I16" s="18">
         <v>10.0</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="27" t="s">
         <v>35</v>
       </c>
       <c r="K16" s="18">
         <v>8.5</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="27" t="s">
         <v>21</v>
       </c>
       <c r="M16" s="18">
         <v>12.0</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="28">
         <v>66.5</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="18">
         <v>12.0</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="18">
         <v>12.0</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="30" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="18">
         <v>11.0</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="18">
         <v>10.0</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="30" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="18">
         <v>11.0</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="30" t="s">
         <v>21</v>
       </c>
       <c r="M17" s="18">
         <v>12.0</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="31">
         <v>68.0</v>
       </c>
     </row>
@@ -1333,46 +1363,46 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="18">
         <v>12.0</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="33" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="18">
         <v>12.0</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="33" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="18">
         <v>11.0</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="33" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="18">
         <v>10.0</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="33" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="18">
         <v>11.0</v>
       </c>
-      <c r="L20" s="27" t="s">
+      <c r="L20" s="33" t="s">
         <v>21</v>
       </c>
       <c r="M20" s="18">
         <v>12.0</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20" s="34">
         <v>68.0</v>
       </c>
     </row>
@@ -1380,27 +1410,27 @@
       <c r="A22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="19">
         <v>103.0</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="19">
         <v>92.5</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="19">
         <v>86.5</v>
       </c>
-      <c r="H22" s="29"/>
+      <c r="H22" s="35"/>
       <c r="I22" s="19">
         <v>91.0</v>
       </c>
-      <c r="J22" s="29"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="19">
         <v>83.5</v>
       </c>
-      <c r="L22" s="29"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="19">
         <v>108.0</v>
       </c>
@@ -1473,34 +1503,34 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="18">
         <v>0.0</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="18">
         <v>0.0</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="18">
         <v>0.0</v>
       </c>
-      <c r="H29" s="21"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="18">
         <v>0.0</v>
       </c>
-      <c r="J29" s="21"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="18">
         <v>0.0</v>
       </c>
-      <c r="L29" s="21"/>
+      <c r="L29" s="24"/>
       <c r="M29" s="18">
         <v>0.0</v>
       </c>
-      <c r="N29" s="22">
+      <c r="N29" s="25">
         <v>0.0</v>
       </c>
     </row>
@@ -1601,66 +1631,66 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="18">
         <v>0.0</v>
       </c>
-      <c r="D33" s="21"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="18">
         <v>0.0</v>
       </c>
-      <c r="F33" s="21"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="18">
         <v>0.0</v>
       </c>
-      <c r="H33" s="21"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="18">
         <v>0.0</v>
       </c>
-      <c r="J33" s="21"/>
+      <c r="J33" s="27"/>
       <c r="K33" s="18">
         <v>0.0</v>
       </c>
-      <c r="L33" s="21"/>
+      <c r="L33" s="27"/>
       <c r="M33" s="18">
         <v>0.0</v>
       </c>
-      <c r="N33" s="22">
+      <c r="N33" s="28">
         <v>0.0</v>
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="18">
         <v>0.0</v>
       </c>
-      <c r="D34" s="24"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="18">
         <v>0.0</v>
       </c>
-      <c r="F34" s="24"/>
+      <c r="F34" s="30"/>
       <c r="G34" s="18">
         <v>0.0</v>
       </c>
-      <c r="H34" s="24"/>
+      <c r="H34" s="30"/>
       <c r="I34" s="18">
         <v>0.0</v>
       </c>
-      <c r="J34" s="24"/>
+      <c r="J34" s="30"/>
       <c r="K34" s="18">
         <v>0.0</v>
       </c>
-      <c r="L34" s="24"/>
+      <c r="L34" s="30"/>
       <c r="M34" s="18">
         <v>0.0</v>
       </c>
-      <c r="N34" s="25">
+      <c r="N34" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -1697,34 +1727,34 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="27"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="18">
         <v>0.0</v>
       </c>
-      <c r="D37" s="27"/>
+      <c r="D37" s="33"/>
       <c r="E37" s="18">
         <v>0.0</v>
       </c>
-      <c r="F37" s="27"/>
+      <c r="F37" s="33"/>
       <c r="G37" s="18">
         <v>0.0</v>
       </c>
-      <c r="H37" s="27"/>
+      <c r="H37" s="33"/>
       <c r="I37" s="18">
         <v>0.0</v>
       </c>
-      <c r="J37" s="27"/>
+      <c r="J37" s="33"/>
       <c r="K37" s="18">
         <v>0.0</v>
       </c>
-      <c r="L37" s="27"/>
+      <c r="L37" s="33"/>
       <c r="M37" s="18">
         <v>0.0</v>
       </c>
-      <c r="N37" s="28">
+      <c r="N37" s="34">
         <v>0.0</v>
       </c>
     </row>
@@ -1732,27 +1762,27 @@
       <c r="A39" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="29"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="19">
         <v>0.0</v>
       </c>
-      <c r="D39" s="29"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="19">
         <v>0.0</v>
       </c>
-      <c r="F39" s="29"/>
+      <c r="F39" s="35"/>
       <c r="G39" s="19">
         <v>0.0</v>
       </c>
-      <c r="H39" s="29"/>
+      <c r="H39" s="35"/>
       <c r="I39" s="19">
         <v>0.0</v>
       </c>
-      <c r="J39" s="29"/>
+      <c r="J39" s="35"/>
       <c r="K39" s="19">
         <v>0.0</v>
       </c>
-      <c r="L39" s="29"/>
+      <c r="L39" s="35"/>
       <c r="M39" s="19">
         <v>0.0</v>
       </c>
